--- a/media/step1.xlsx
+++ b/media/step1.xlsx
@@ -19,6 +19,9 @@
     <t>Ghenteel ManuC S M</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
@@ -26,9 +29,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Giftlin Manovah M</t>
@@ -740,32 +740,32 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>7</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="2" s="3" spans="1:11">
@@ -1435,7 +1435,7 @@
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
